--- a/SPRING_4/reports_dframes/Segmentacion_Clientes_KMeans.xlsx
+++ b/SPRING_4/reports_dframes/Segmentacion_Clientes_KMeans.xlsx
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>564.8124750000001</v>
+        <v>564.8124749999999</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
